--- a/website_content_creation/authors/Caroline_Emilson/Author_form_CE.xlsx
+++ b/website_content_creation/authors/Caroline_Emilson/Author_form_CE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esmender\Documents\WET lab\WETlab_website\website_content_creation\Caroline_Emilson\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esmender\Documents\WET lab\WETlab_website\website_content_creation\authors\Caroline_Emilson\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>name</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>WETlab Contributors from the GLFC</t>
+  </si>
+  <si>
+    <t>Google Scholar</t>
+  </si>
+  <si>
+    <t>‪https://scholar.google.com/citations?user=RkiCnGIAAAAJ&amp;hl=en&amp;oi=ao‬</t>
   </si>
 </sst>
 </file>
@@ -384,7 +390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -401,6 +407,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -410,8 +418,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -693,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -742,7 +751,7 @@
       <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -750,7 +759,7 @@
       <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -764,77 +773,80 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B11" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B12" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-    </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+    </row>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2">
         <v>2014</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="1">
         <v>2012</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
@@ -846,32 +858,33 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="16"/>
-    </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
+      <c r="B22" s="18"/>
+    </row>
+    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B23" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+    <row r="24" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B24" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
@@ -893,44 +906,44 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A22:B22"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="B7" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/website_content_creation/authors/Caroline_Emilson/Author_form_CE.xlsx
+++ b/website_content_creation/authors/Caroline_Emilson/Author_form_CE.xlsx
@@ -95,9 +95,6 @@
     <t>https://github.com/cemilson</t>
   </si>
   <si>
-    <t>MSc Biology</t>
-  </si>
-  <si>
     <t>https://cfs.nrcan.gc.ca/authors/read/25245</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
     <t>Laurentian University</t>
   </si>
   <si>
-    <t>BSc Terrestrial &amp; Aquatic Eology (Honours)</t>
-  </si>
-  <si>
     <t>Laurentian University /University of Helsinki</t>
   </si>
   <si>
@@ -144,6 +138,12 @@
   </si>
   <si>
     <t>‪https://scholar.google.com/citations?user=RkiCnGIAAAAJ&amp;hl=en&amp;oi=ao‬</t>
+  </si>
+  <si>
+    <t>M.Sc. Biology</t>
+  </si>
+  <si>
+    <t>B.Sc. Terrestrial &amp; Aquatic Eology (Honours)</t>
   </si>
 </sst>
 </file>
@@ -409,6 +409,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -417,9 +420,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -705,7 +705,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -738,7 +738,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -768,15 +768,15 @@
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -784,7 +784,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -792,15 +792,15 @@
         <v>18</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -809,11 +809,11 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
@@ -828,10 +828,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2">
         <v>2014</v>
@@ -839,10 +839,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" s="1">
         <v>2012</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="18"/>
+      <c r="B22" s="19"/>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
@@ -883,7 +883,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -918,22 +918,22 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">

--- a/website_content_creation/authors/Caroline_Emilson/Author_form_CE.xlsx
+++ b/website_content_creation/authors/Caroline_Emilson/Author_form_CE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>name</t>
   </si>
@@ -144,13 +144,19 @@
   </si>
   <si>
     <t>B.Sc. Terrestrial &amp; Aquatic Eology (Honours)</t>
+  </si>
+  <si>
+    <t>OrcID</t>
+  </si>
+  <si>
+    <t>0000-0002-4770-1117</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +172,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -390,7 +403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -421,6 +434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -702,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -779,79 +793,82 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B12" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B13" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-    </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+    </row>
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="2">
         <v>2014</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C18" s="1">
         <v>2012</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
@@ -863,32 +880,33 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="19"/>
-    </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
+      <c r="B23" s="19"/>
+    </row>
+    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B24" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+    <row r="25" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B25" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
@@ -910,39 +928,43 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/website_content_creation/authors/Caroline_Emilson/Author_form_CE.xlsx
+++ b/website_content_creation/authors/Caroline_Emilson/Author_form_CE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esmender\Documents\WET lab\WETlab_website\website_content_creation\authors\Caroline_Emilson\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esmender\RProjects\GLFC-WET.github.io\website_content_creation\authors\Caroline_Emilson\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -89,9 +89,6 @@
     <t>Caroline Emilson</t>
   </si>
   <si>
-    <t>caroline.emilson@canada.ca</t>
-  </si>
-  <si>
     <t>https://github.com/cemilson</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t>0000-0002-4770-1117</t>
+  </si>
+  <si>
+    <t>caroline.emilson@NRCan-RNCan.gc.ca</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -425,6 +425,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -434,7 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -719,7 +720,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,7 +753,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -765,8 +766,8 @@
       <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>21</v>
+      <c r="B6" s="21" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -774,7 +775,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -782,23 +783,23 @@
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>36</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>40</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -806,7 +807,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -814,15 +815,15 @@
         <v>18</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>34</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -831,11 +832,11 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
@@ -850,10 +851,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2">
         <v>2014</v>
@@ -861,10 +862,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1">
         <v>2012</v>
@@ -887,10 +888,10 @@
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="20"/>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
@@ -905,7 +906,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -940,22 +941,22 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -966,6 +967,9 @@
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A23:B23"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/website_content_creation/authors/Caroline_Emilson/Author_form_CE.xlsx
+++ b/website_content_creation/authors/Caroline_Emilson/Author_form_CE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esmender\RProjects\GLFC-WET.github.io\website_content_creation\authors\Caroline_Emilson\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://041gc-my.sharepoint.com/personal/emily_smenderovac_nrcan-rncan_gc_ca/Documents/Documents/WET lab/GLFC-WET.github.io/website_content_creation/authors/Caroline_Emilson/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_E3F25DD768BB068D9F96CE7A53A24E5E338A3CAB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF5291B2-F473-4182-B35D-E7C6FD315965}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -122,9 +123,6 @@
     <t>Laurentian University /University of Helsinki</t>
   </si>
   <si>
-    <t>Molecular Ecologist/ Bioinformatician</t>
-  </si>
-  <si>
     <t>Groups</t>
   </si>
   <si>
@@ -150,12 +148,15 @@
   </si>
   <si>
     <t>caroline.emilson@NRCan-RNCan.gc.ca</t>
+  </si>
+  <si>
+    <t>Forest Ecologist and Bioinformatician</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -403,7 +404,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -420,12 +421,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -435,7 +436,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -716,31 +716,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -748,29 +748,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
@@ -778,7 +778,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
@@ -786,23 +786,23 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
@@ -810,7 +810,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>18</v>
       </c>
@@ -818,27 +818,27 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="20"/>
     </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
@@ -849,9 +849,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>30</v>
@@ -860,9 +860,9 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>31</v>
@@ -871,29 +871,29 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="20"/>
     </row>
-    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
@@ -901,7 +901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
@@ -909,57 +909,57 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
   </sheetData>
@@ -968,7 +968,7 @@
     <mergeCell ref="A23:B23"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/website_content_creation/authors/Caroline_Emilson/Author_form_CE.xlsx
+++ b/website_content_creation/authors/Caroline_Emilson/Author_form_CE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://041gc-my.sharepoint.com/personal/emily_smenderovac_nrcan-rncan_gc_ca/Documents/Documents/WET lab/GLFC-WET.github.io/website_content_creation/authors/Caroline_Emilson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_E3F25DD768BB068D9F96CE7A53A24E5E338A3CAB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF5291B2-F473-4182-B35D-E7C6FD315965}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_E3F25DD768BB068D9F96CE7A53A24E5E338A3CAB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28D6DB24-4690-47E7-9DAE-AADDCADC245A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,9 +126,6 @@
     <t>Groups</t>
   </si>
   <si>
-    <t>WETlab Contributors from the GLFC</t>
-  </si>
-  <si>
     <t>Google Scholar</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>Forest Ecologist and Bioinformatician</t>
+  </si>
+  <si>
+    <t>Visiting and Contributing Scientists</t>
   </si>
 </sst>
 </file>
@@ -720,7 +720,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,7 +753,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -767,7 +767,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -788,18 +788,18 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>34</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -823,7 +823,7 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -851,7 +851,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>30</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>31</v>
@@ -971,5 +971,14 @@
     <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;12&amp;K000000 UNCLASSIFIED - NON CLASSIFIÉ&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{219619fd-75dc-48cb-820d-8f683a95dd8b}" enabled="1" method="Privileged" siteId="{05c95b33-90ca-49d5-b644-288b930b912b}" removed="0"/>
+</clbl:labelList>
 </file>
--- a/website_content_creation/authors/Caroline_Emilson/Author_form_CE.xlsx
+++ b/website_content_creation/authors/Caroline_Emilson/Author_form_CE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://041gc-my.sharepoint.com/personal/emily_smenderovac_nrcan-rncan_gc_ca/Documents/Documents/WET lab/GLFC-WET.github.io/website_content_creation/authors/Caroline_Emilson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_E3F25DD768BB068D9F96CE7A53A24E5E338A3CAB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28D6DB24-4690-47E7-9DAE-AADDCADC245A}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_E3F25DD768BB068D9F96CE7A53A24E5E338A3CAB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DB9F9EF-55AA-4BCA-A261-7896828684CF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>Twitter</t>
-  </si>
-  <si>
     <t>e-mail</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>Visiting and Contributing Scientists</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -720,246 +720,246 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="9"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
         <v>4</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>5</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="20"/>
     </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2">
         <v>2014</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="20"/>
+    </row>
+    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="20"/>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="6" t="s">
+    </row>
+    <row r="25" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="B25" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
     </row>
   </sheetData>
